--- a/biology/Médecine/Collagène_type_VI/Collagène_type_VI.xlsx
+++ b/biology/Médecine/Collagène_type_VI/Collagène_type_VI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collag%C3%A8ne_type_VI</t>
+          <t>Collagène_type_VI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le collagène VI est une forme de collagène principalement associée à la matrice extracellulaire du muscle squelettique.
-Il constitue une famille de protéines dont les membres ont les gènes COL6A1 (en) 120220, COL6A2 (en) 120240, COL6A3 (en) 120250 qui sont localisées sur les chromosomes 21 (COL6A1, COL6A2) et 2, COL6A4, COL6A5, COL6A6, ces trois derniers étant situés sur le chromosome 6[1].
+Il constitue une famille de protéines dont les membres ont les gènes COL6A1 (en) 120220, COL6A2 (en) 120240, COL6A3 (en) 120250 qui sont localisées sur les chromosomes 21 (COL6A1, COL6A2) et 2, COL6A4, COL6A5, COL6A6, ces trois derniers étant situés sur le chromosome 6.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collag%C3%A8ne_type_VI</t>
+          <t>Collagène_type_VI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Structure et régulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un composant de la matrice extracellulaire du tissu conjonctif[1].
-Il forme des multimères constituant un collagène non fibrillaire, avec des motifs de sur-enroulement[2].
-Au niveau pulmonaire, sa sécrétion dépend de l'annexine 2[3].
-Au niveau du tissu digestif, il se situe au contact de la membrane basale et permet la régulation des interactions entre la cellule épithéliale avec la fibronectine[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un composant de la matrice extracellulaire du tissu conjonctif.
+Il forme des multimères constituant un collagène non fibrillaire, avec des motifs de sur-enroulement.
+Au niveau pulmonaire, sa sécrétion dépend de l'annexine 2.
+Au niveau du tissu digestif, il se situe au contact de la membrane basale et permet la régulation des interactions entre la cellule épithéliale avec la fibronectine.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collag%C3%A8ne_type_VI</t>
+          <t>Collagène_type_VI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies en rapport avec le collagène type VI comprennent la myopathie de Bethlem et la dystrophie congénitale musculaire d'Ullrich.
 La myopathie de Bethlem est caractérisée par la combinaison de faiblesse musculaire et de contractures musculaires atteignant principalement les muscles des doigts, du poignet et du coude. Le début peut être prénatal avec diminution des mouvements fœtaux; néonatal avec hypotonie et torticolis; dans l'enfance, avec faiblesse musculaire et contractures, un retard à d'acquisition de la marche, etc.; à l'âge adulte, entre 40 et 60 ans, avec faiblesses musculaires et contracture du muscle fléchisseur des doigts et des muscles des jambes.
@@ -559,7 +575,7 @@
 La distinction est importante, car ces deux maladies ont des modes de transmissions différents :
 La myopathie de Bethlem est de transmission autosomique dominante.
 La dystrophie congénitale musculaire d'Ullrich est de transmission autosomique récessive.
-Par ailleurs le collagène VI interviendrait dans la maladie de Hirschsprung en gênant la migration neuronale dans le tube digestif[5].
+Par ailleurs le collagène VI interviendrait dans la maladie de Hirschsprung en gênant la migration neuronale dans le tube digestif.
 </t>
         </is>
       </c>
